--- a/biology/Écologie/The_American_Naturalist/The_American_Naturalist.xlsx
+++ b/biology/Écologie/The_American_Naturalist/The_American_Naturalist.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-The American Naturalist (abrégé en Am. Nat.) une revue scientifique mensuelle à comité de lecture, fondée en 1867, associée avec l'université de Chicago. Cette revue traite de l'écologie, la biologie évolutive et de diverses questions de biologie[1].
-D'après le Journal Citation Reports, le facteur d'impact de ce journal était de 4,796 en 2009. Actuellement, le directeur de publication est Mark A. McPeek (Dartmouth College, États-Unis)[2].
+The American Naturalist (abrégé en Am. Nat.) une revue scientifique mensuelle à comité de lecture, fondée en 1867, associée avec l'université de Chicago. Cette revue traite de l'écologie, la biologie évolutive et de diverses questions de biologie.
+D'après le Journal Citation Reports, le facteur d'impact de ce journal était de 4,796 en 2009. Actuellement, le directeur de publication est Mark A. McPeek (Dartmouth College, États-Unis).
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Edwin G. Conklin, « The Early History of the American Naturalist », Am. Nat., vol. 78, no 774,‎ 1944, p. 29-37 (ISSN 0003-0147, DOI 10.1086/281164, lire en ligne)
 (en) L. C. Dunn, « The American Naturalist in American Biology », Am. Nat., vol. 100, no 915,‎ 1966, p. 481-482 (ISSN 0003-0147, DOI 10.1086/282444)
